--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_49.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_49.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998646323718429</v>
+        <v>0.9499165337112964</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8255993760087708</v>
+        <v>0.7463002980335021</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8154405153104726</v>
+        <v>0.7526744687904923</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995704553427988</v>
+        <v>0.9730936536765094</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005634713660911988</v>
+        <v>0.175568121051577</v>
       </c>
       <c r="G2" t="n">
-        <v>1.166217775670384</v>
+        <v>1.696491075229685</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6601585753606547</v>
+        <v>0.8846690843781412</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00148095273277431</v>
+        <v>0.1470730528712123</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06952678293594342</v>
+        <v>1.598962697634245</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02373755181334416</v>
+        <v>0.4190084975887446</v>
       </c>
       <c r="L2" t="n">
-        <v>1.008663528202057</v>
+        <v>0.9318012373941057</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02411139452555803</v>
+        <v>0.425607462570937</v>
       </c>
       <c r="N2" t="n">
-        <v>144.9627880803312</v>
+        <v>37.47945631449701</v>
       </c>
       <c r="O2" t="n">
-        <v>286.2979606235476</v>
+        <v>74.44403990272284</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998578845354662</v>
+        <v>0.9499027118710981</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8254192914184854</v>
+        <v>0.7459246880977582</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8151887586983753</v>
+        <v>0.7527595620906457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999552050964271</v>
+        <v>0.9734662610929766</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005915594151546673</v>
+        <v>0.175616573658653</v>
       </c>
       <c r="G3" t="n">
-        <v>1.167422002154835</v>
+        <v>1.699002780599528</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6610590941644399</v>
+        <v>0.8843647105774857</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001544406006418194</v>
+        <v>0.1450363396882539</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07159630710615929</v>
+        <v>1.596016682733237</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02432199447320608</v>
+        <v>0.4190663117677833</v>
       </c>
       <c r="L3" t="n">
-        <v>1.009095389730163</v>
+        <v>0.9317824161648995</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02470504157308446</v>
+        <v>0.4256661872655025</v>
       </c>
       <c r="N3" t="n">
-        <v>144.8654968626308</v>
+        <v>37.47890443842595</v>
       </c>
       <c r="O3" t="n">
-        <v>286.2006694058472</v>
+        <v>74.44348802665178</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998531331336806</v>
+        <v>0.9499131230935586</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8253562846783373</v>
+        <v>0.745693437637007</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8149255726857929</v>
+        <v>0.7523754631099329</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995615680148178</v>
+        <v>0.9741922923552573</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006113372519346766</v>
+        <v>0.1755800770081474</v>
       </c>
       <c r="G4" t="n">
-        <v>1.167843328516325</v>
+        <v>1.700549153495383</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6620004952710452</v>
+        <v>0.8857386103601564</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001511593813835081</v>
+        <v>0.1410677728326966</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07638323719876604</v>
+        <v>1.589424746108119</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02472523512395133</v>
+        <v>0.4190227643077967</v>
       </c>
       <c r="L4" t="n">
-        <v>1.00939947944444</v>
+        <v>0.9317965931486755</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02511463286098618</v>
+        <v>0.4256219539765527</v>
       </c>
       <c r="N4" t="n">
-        <v>144.7997235678213</v>
+        <v>37.47932012178247</v>
       </c>
       <c r="O4" t="n">
-        <v>286.1348961110377</v>
+        <v>74.4439037100083</v>
       </c>
     </row>
     <row r="5">
@@ -659,340 +659,340 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998545702590577</v>
+        <v>0.9498758752872876</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8253259129903427</v>
+        <v>0.745200423523511</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8150831556025016</v>
+        <v>0.7522600813454372</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9995760092790481</v>
+        <v>0.9749062729321906</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0006053551791858152</v>
+        <v>0.1757106495871817</v>
       </c>
       <c r="G5" t="n">
-        <v>1.168046424133793</v>
+        <v>1.703845941142452</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6614368303151605</v>
+        <v>0.8861513242415386</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001461804276547005</v>
+        <v>0.1371650763506901</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07502972240312128</v>
+        <v>1.582502130605228</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02460396673680517</v>
+        <v>0.4191785414202184</v>
       </c>
       <c r="L5" t="n">
-        <v>1.00930750342031</v>
+        <v>0.9317458727316257</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02499145461796637</v>
+        <v>0.425780184422775</v>
       </c>
       <c r="N5" t="n">
-        <v>144.819390398318</v>
+        <v>37.47783334658276</v>
       </c>
       <c r="O5" t="n">
-        <v>286.1545629415344</v>
+        <v>74.44241693480859</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_5</t>
+          <t>model_1_49_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999867552004807</v>
+        <v>0.949290490949902</v>
       </c>
       <c r="C6" t="n">
-        <v>0.825240514555628</v>
+        <v>0.7429469566577251</v>
       </c>
       <c r="D6" t="n">
-        <v>0.815056234252451</v>
+        <v>0.7502490766121428</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997429488093278</v>
+        <v>0.9785191754639014</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000551318315932672</v>
+        <v>0.1777627205763454</v>
       </c>
       <c r="G6" t="n">
-        <v>1.168617483859955</v>
+        <v>1.718914884450222</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6615331264233022</v>
+        <v>0.8933445715677784</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0008862423426922437</v>
+        <v>0.1174165531332904</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06272995704289895</v>
+        <v>1.543760615706204</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02348016856695608</v>
+        <v>0.4216191653332962</v>
       </c>
       <c r="L6" t="n">
-        <v>1.00847667169235</v>
+        <v>0.9309487536339092</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02384995775032818</v>
+        <v>0.428259245722755</v>
       </c>
       <c r="N6" t="n">
-        <v>145.0063964195045</v>
+        <v>37.45461129687103</v>
       </c>
       <c r="O6" t="n">
-        <v>286.3415689627209</v>
+        <v>74.41919488509684</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_4</t>
+          <t>model_1_49_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998538765595552</v>
+        <v>0.9490662117529179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8249666060225581</v>
+        <v>0.742150278662042</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8147460243613071</v>
+        <v>0.75010572140457</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997254254520146</v>
+        <v>0.9790919784279394</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000608242721884674</v>
+        <v>0.1785489336746653</v>
       </c>
       <c r="G7" t="n">
-        <v>1.170449111481825</v>
+        <v>1.72424227387572</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6626427292169208</v>
+        <v>0.8938573448330538</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0009466580956652304</v>
+        <v>0.1142855490347819</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06272110304437416</v>
+        <v>1.537783083110407</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02466257735689184</v>
+        <v>0.4225505102051887</v>
       </c>
       <c r="L7" t="n">
-        <v>1.00935190018847</v>
+        <v>0.9306433521741861</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02505098829673028</v>
+        <v>0.4292052583453764</v>
       </c>
       <c r="N7" t="n">
-        <v>144.8098730840731</v>
+        <v>37.44578515419609</v>
       </c>
       <c r="O7" t="n">
-        <v>286.1450456272895</v>
+        <v>74.41036874242191</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_3</t>
+          <t>model_1_49_5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998445485230143</v>
+        <v>0.949293000540065</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8249260940570712</v>
+        <v>0.741787773643207</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8146393495034165</v>
+        <v>0.7523412821778208</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997373288950481</v>
+        <v>0.9778720356107844</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0006470709230148469</v>
+        <v>0.1777539231814727</v>
       </c>
       <c r="G8" t="n">
-        <v>1.170720015181577</v>
+        <v>1.726666346605852</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6630242989982316</v>
+        <v>0.885860873572397</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000905618273159421</v>
+        <v>0.1209538908560814</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06765559343641159</v>
+        <v>1.548515619047022</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02543758878146368</v>
+        <v>0.4216087323354116</v>
       </c>
       <c r="L8" t="n">
-        <v>1.009948894527085</v>
+        <v>0.9309521709481737</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02583820537651193</v>
+        <v>0.4282486484155828</v>
       </c>
       <c r="N8" t="n">
-        <v>144.6861093024201</v>
+        <v>37.45471027839585</v>
       </c>
       <c r="O8" t="n">
-        <v>286.0212818456365</v>
+        <v>74.41929386662167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_0</t>
+          <t>model_1_49_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998181594069138</v>
+        <v>0.9477658018706248</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8247602691425673</v>
+        <v>0.7391906085267326</v>
       </c>
       <c r="D9" t="n">
-        <v>0.815349161250343</v>
+        <v>0.7483161871538686</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999038431897079</v>
+        <v>0.9812584973893905</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0007569163232891684</v>
+        <v>0.1831075342778071</v>
       </c>
       <c r="G9" t="n">
-        <v>1.171828887148418</v>
+        <v>1.744033601698562</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6604853435367258</v>
+        <v>0.9002584050846552</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003315224356527099</v>
+        <v>0.1024431177387198</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06049553714340138</v>
+        <v>1.513482554482091</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02751211230147857</v>
+        <v>0.4279106615612739</v>
       </c>
       <c r="L9" t="n">
-        <v>1.011637797957519</v>
+        <v>0.928872581270638</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02794540056820435</v>
+        <v>0.4346498267271344</v>
       </c>
       <c r="N9" t="n">
-        <v>144.3725156958063</v>
+        <v>37.3953633594335</v>
       </c>
       <c r="O9" t="n">
-        <v>285.7076882390227</v>
+        <v>74.35994694765932</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_2</t>
+          <t>model_1_49_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998270163470226</v>
+        <v>0.947654804497204</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8245418693827832</v>
+        <v>0.7389477027166027</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8150173457090681</v>
+        <v>0.7482017647030641</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997800143746977</v>
+        <v>0.9813759825472551</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0007200490736339819</v>
+        <v>0.1834966367448931</v>
       </c>
       <c r="G10" t="n">
-        <v>1.173289327347733</v>
+        <v>1.74565791396938</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6616722284880949</v>
+        <v>0.9006676875565878</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0007584503904329383</v>
+        <v>0.1018009309242616</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06554512157145233</v>
+        <v>1.511835824559761</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02683373014759562</v>
+        <v>0.4283650741422474</v>
       </c>
       <c r="L10" t="n">
-        <v>1.011070953790551</v>
+        <v>0.9287214359110862</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0272563345735311</v>
+        <v>0.4351113958520123</v>
       </c>
       <c r="N10" t="n">
-        <v>144.4723823809037</v>
+        <v>37.39111788004237</v>
       </c>
       <c r="O10" t="n">
-        <v>285.8075549241201</v>
+        <v>74.35570146826819</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_1</t>
+          <t>model_1_49_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998174402557326</v>
+        <v>0.9471200170188119</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8242861613599028</v>
+        <v>0.7380750220811314</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8149071408594522</v>
+        <v>0.7473205028899219</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998137788598419</v>
+        <v>0.9819239654208456</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0007599098092798511</v>
+        <v>0.1853713399094458</v>
       </c>
       <c r="G11" t="n">
-        <v>1.174999248074161</v>
+        <v>1.7514935333971</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6620664248451271</v>
+        <v>0.9038199099637013</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0006420396617533154</v>
+        <v>0.09880559617419421</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05943191459958063</v>
+        <v>1.503755385062122</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02756646167501101</v>
+        <v>0.430547720827141</v>
       </c>
       <c r="L11" t="n">
-        <v>1.011683823633113</v>
+        <v>0.927993214663914</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02800060589004049</v>
+        <v>0.4373284170403468</v>
       </c>
       <c r="N11" t="n">
-        <v>144.3646216074523</v>
+        <v>37.37078844594019</v>
       </c>
       <c r="O11" t="n">
-        <v>285.6997941506688</v>
+        <v>74.33537203416601</v>
       </c>
     </row>
   </sheetData>
